--- a/biology/Histoire de la zoologie et de la botanique/William_Boyd_Dawkins/William_Boyd_Dawkins.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Boyd_Dawkins/William_Boyd_Dawkins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Boyd Dawkins (Buttington, 26 décembre 1838-Bowdon (Grand Manchester), 15 janvier 1929) est un géologue, paléontologue et archéologue britannique.
 Membre du British Geological Survey, conservateur du Manchester Museum, professeur de géologie à Manchester, célèbre pour ses travaux sur les fossiles, il a posé les fondements de la science préhistorique.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études au Jesus College d'Oxford et, dès 1862, rejoint le British Geological Survey. Il travaille alors pendant sept années sur la vallée de la Tamise. Élu en 1869 à la Société géologique de Londres, il devient la même année le conservateur du Musée de Manchester, poste qu'il occupera jusqu'en 1890 et enseigne à partir de 1874 la géologie dans la même ville.
 Engagé dans une société minière de Manchester qu'il présidera à trois reprises (1874-1875 ; 1876-1877 et 1886-1887), membre de la Royal Society dès 1867, il explore de nombreux gisements de l'âge du renne en Angleterre et est engagé pour étudier les terrains en vue de l'établissement d'un tunnel sous la Manche (1882).
@@ -545,7 +559,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>British Pleistocene mammalia, 6 vol., 1866
 The Sub-Wealden Exploration, 1872
